--- a/Data/ESM/mindcog_v202204/Medoq_informatie_2.xlsx
+++ b/Data/ESM/mindcog_v202204/Medoq_informatie_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clemenskaiser/Documents/RUG/Thesis/EMA-mindfulness/Data/ESM/mindcog_v202202-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\Documents\Education\RUG\Thesis\EMA-mindfulness\Data\ESM\mindcog_v202204\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5375B0-C7EB-234D-A4A6-7DE9132845CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420FBD69-2230-430C-8804-1D53579A72B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26900" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Positief fantseren" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="370">
   <si>
     <t>ID Nummer</t>
   </si>
@@ -264,9 +262,6 @@
   </si>
   <si>
     <t>md-91abe13075070139b98d0242ac120002</t>
-  </si>
-  <si>
-    <t>S81_g1_m</t>
   </si>
   <si>
     <t>md-375cfb907aa001391af60242ac120002</t>
@@ -1507,21 +1502,21 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="38.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
     <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1545,7 +1540,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="14.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1569,7 +1564,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="14.4">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1591,7 +1586,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="14.4">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1615,7 +1610,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="14.4">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1637,7 +1632,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="14.4">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1661,7 +1656,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="14.4">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1683,7 +1678,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="14.4">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1707,7 +1702,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="14.4">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1729,7 +1724,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="14.4">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1751,7 +1746,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="14.4">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1775,7 +1770,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="14.4">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1799,7 +1794,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="14.4">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1823,7 +1818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="14.4">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -1845,7 +1840,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="14.4">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -1869,7 +1864,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="14.4">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1891,7 +1886,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="14.4">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1913,7 +1908,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="14.4">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -1935,7 +1930,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="14.4">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -1959,7 +1954,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="14.4">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -2097,14 +2092,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>74</v>
+        <v>369</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>64</v>
@@ -2119,14 +2114,14 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>64</v>
@@ -2141,14 +2136,14 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>64</v>
@@ -2163,14 +2158,14 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>64</v>
@@ -2185,14 +2180,14 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>64</v>
@@ -2207,14 +2202,14 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>64</v>
@@ -2229,14 +2224,14 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>64</v>
@@ -2251,14 +2246,14 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>64</v>
@@ -2273,20 +2268,20 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -2309,20 +2304,20 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="4"/>
@@ -2345,20 +2340,20 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -2381,20 +2376,20 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -2417,14 +2412,14 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -2451,14 +2446,14 @@
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -2485,14 +2480,14 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -2519,14 +2514,14 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -2553,14 +2548,14 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2587,14 +2582,14 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -2621,14 +2616,14 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -2655,14 +2650,14 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -2689,14 +2684,14 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -2723,14 +2718,14 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -2757,14 +2752,14 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -2791,14 +2786,14 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -2823,16 +2818,16 @@
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" ht="14.4">
       <c r="A50" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -2859,14 +2854,14 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -2893,14 +2888,14 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -2927,14 +2922,14 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -2961,14 +2956,14 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -2995,14 +2990,14 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -3029,14 +3024,14 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -3063,14 +3058,14 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -3097,14 +3092,14 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -3131,14 +3126,14 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -3165,14 +3160,14 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -3199,14 +3194,14 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -3233,14 +3228,14 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -3267,14 +3262,14 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3283,14 +3278,14 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3299,14 +3294,14 @@
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3315,14 +3310,14 @@
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1">
       <c r="A66" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3331,14 +3326,14 @@
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1">
       <c r="A67" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3347,14 +3342,14 @@
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1">
       <c r="A68" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3363,14 +3358,14 @@
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1">
       <c r="A69" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3379,14 +3374,14 @@
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1">
       <c r="A70" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -4487,22 +4482,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4525,345 +4520,345 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="14.4">
       <c r="A2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="C2" s="1">
         <v>3595757</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="14.4">
       <c r="A3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.4">
+      <c r="A4" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="1">
         <v>3595759</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="14.4">
       <c r="A5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.4">
+      <c r="A6" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="14.4">
       <c r="A7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="E7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.4">
+      <c r="A8" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="E8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.4">
+      <c r="A9" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="E9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.4">
+      <c r="A10" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="E10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="14.4">
       <c r="A11" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="E11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="14.4">
       <c r="A12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="14.4">
       <c r="A13" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="E13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.4">
       <c r="A14" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="G14" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="14.4">
       <c r="A15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="E15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="14.4">
       <c r="A16" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="14.4">
       <c r="A17" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="E17" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="G17" s="1">
         <v>2</v>
@@ -4871,19 +4866,19 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -4891,19 +4886,19 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="E19" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -4911,19 +4906,19 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -4931,19 +4926,19 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="E21" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -4951,14 +4946,14 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -4985,14 +4980,14 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -5019,14 +5014,14 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -5053,14 +5048,14 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -5087,14 +5082,14 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>271</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -5121,14 +5116,14 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -5155,14 +5150,14 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -5189,14 +5184,14 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -5223,14 +5218,14 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>281</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -5257,14 +5252,14 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>284</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -5291,14 +5286,14 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -5325,14 +5320,14 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -5359,14 +5354,14 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -5393,14 +5388,14 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -5427,14 +5422,14 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -5461,14 +5456,14 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -5495,14 +5490,14 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -5529,14 +5524,14 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>304</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -5563,14 +5558,14 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -5597,14 +5592,14 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -5631,14 +5626,14 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -5665,14 +5660,14 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>313</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -5699,14 +5694,14 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>315</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -5733,14 +5728,14 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>319</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -5767,14 +5762,14 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -5801,14 +5796,14 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>324</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -5835,14 +5830,14 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>327</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -5869,156 +5864,156 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="A49" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="A51" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1">
       <c r="A52" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="A59" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1">
       <c r="A61" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1">
       <c r="A62" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1"/>
@@ -6955,20 +6950,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" customWidth="1"/>
     <col min="8" max="8" width="48.33203125" bestFit="1" customWidth="1"/>
@@ -6998,10 +6992,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" hidden="1" customHeight="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -7024,10 +7018,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -7048,10 +7042,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -7074,10 +7068,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -7098,10 +7092,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -7124,10 +7118,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -7148,10 +7142,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -7174,10 +7168,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -7198,10 +7192,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -7222,10 +7216,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -7246,10 +7240,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -7272,10 +7266,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -7296,10 +7290,10 @@
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -7320,10 +7314,10 @@
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -7344,10 +7338,10 @@
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -7368,10 +7362,10 @@
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -7392,10 +7386,10 @@
         <v>1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -7416,10 +7410,10 @@
         <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -7440,10 +7434,10 @@
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -7464,10 +7458,10 @@
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
@@ -7488,10 +7482,10 @@
         <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -7512,10 +7506,10 @@
         <v>2</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
@@ -7536,10 +7530,10 @@
         <v>2</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -7560,10 +7554,10 @@
         <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -7584,15 +7578,15 @@
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>62</v>
@@ -7608,15 +7602,15 @@
         <v>1</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>67</v>
@@ -7632,15 +7626,15 @@
         <v>1</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>62</v>
@@ -7656,15 +7650,15 @@
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>67</v>
@@ -7680,15 +7674,15 @@
         <v>1</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>64</v>
@@ -7704,15 +7698,15 @@
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>65</v>
@@ -7728,15 +7722,15 @@
         <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>64</v>
@@ -7752,15 +7746,15 @@
         <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>65</v>
@@ -7776,1239 +7770,1239 @@
         <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B52" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1">
       <c r="A55" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B55" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1">
       <c r="A56" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1">
       <c r="A57" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1">
       <c r="A58" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
       <c r="A60" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B60" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
       <c r="A62" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B62" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B67" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B68" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B70" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="D71" s="1">
         <v>3595757</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="G71" s="1">
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="E72" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="G72" s="1">
         <v>1</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D73" s="1">
         <v>3595759</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="G73" s="1">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="G74" s="1">
         <v>1</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="G75" s="1">
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="E76" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="G76" s="1">
         <v>1</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="E77" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="G77" s="1">
         <v>2</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="E78" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="G78" s="1">
         <v>2</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="E79" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="G79" s="1">
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="G80" s="1">
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="G81" s="1">
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="G82" s="1">
         <v>1</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E83" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="G83" s="1">
         <v>2</v>
       </c>
       <c r="H83" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="E84" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="G84" s="1">
         <v>2</v>
       </c>
       <c r="H84" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="G85" s="1">
         <v>2</v>
       </c>
       <c r="H85" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E86" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="G86" s="1">
         <v>2</v>
       </c>
       <c r="H86" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="G87" s="1">
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="G88" s="1">
         <v>1</v>
       </c>
       <c r="H88" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="G89" s="1">
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="G90" s="1">
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="G91" s="1">
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="G92" s="1">
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="G93" s="1">
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="G94" s="1">
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -9016,15 +9010,15 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -9032,825 +9026,825 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" customHeight="1">
       <c r="A97" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" customHeight="1">
       <c r="A98" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" customHeight="1">
       <c r="A99" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B99" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" customHeight="1">
       <c r="A100" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15.75" customHeight="1">
       <c r="A101" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" customHeight="1">
       <c r="A102" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.75" customHeight="1">
       <c r="A103" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15.75" customHeight="1">
       <c r="A104" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15.75" customHeight="1">
       <c r="A105" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.75" customHeight="1">
       <c r="A106" t="s">
+        <v>361</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="C106" t="s">
+        <v>108</v>
+      </c>
+      <c r="H106" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A107" t="s">
+        <v>365</v>
+      </c>
+      <c r="B107" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="B106" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="C106" t="s">
-        <v>109</v>
-      </c>
-      <c r="H106" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="15.75" hidden="1" customHeight="1">
-      <c r="A107" t="s">
-        <v>366</v>
-      </c>
-      <c r="B107" s="15" t="s">
+      <c r="C107" t="s">
         <v>363</v>
       </c>
-      <c r="C107" t="s">
-        <v>364</v>
-      </c>
       <c r="H107" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15.75" customHeight="1">
       <c r="A108" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15.75" customHeight="1">
       <c r="A109" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>271</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15.75" customHeight="1">
       <c r="A110" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15.75" customHeight="1">
       <c r="A111" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15.75" customHeight="1">
       <c r="A112" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.75" customHeight="1">
       <c r="A113" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B113" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>281</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" customHeight="1">
       <c r="A114" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B114" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>284</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.75" customHeight="1">
       <c r="A115" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B115" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
       <c r="H115" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15.75" customHeight="1">
       <c r="A116" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15.75" customHeight="1">
       <c r="A117" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15.75" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="16" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="16" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15.75" customHeight="1">
       <c r="A120" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.75" customHeight="1">
       <c r="A121" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
       <c r="H121" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" customHeight="1">
       <c r="A122" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>304</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15.75" customHeight="1">
       <c r="A123" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15.75" customHeight="1">
       <c r="A124" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15.75" customHeight="1">
       <c r="A125" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15.75" customHeight="1">
       <c r="A126" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B126" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C126" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>313</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15.75" customHeight="1">
       <c r="A127" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B127" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>315</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15.75" customHeight="1">
       <c r="A128" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B128" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>319</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15.75" customHeight="1">
       <c r="A129" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
       <c r="H129" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15.75" customHeight="1">
       <c r="A130" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B130" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>324</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
       <c r="H130" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15.75" customHeight="1">
       <c r="A131" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B131" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>327</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
       <c r="H131" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15.75" customHeight="1">
       <c r="A132" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="H132" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A133" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B133" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="C133" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H133" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A134" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="H132" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="15.75" hidden="1" customHeight="1">
-      <c r="A133" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="B133" s="14" t="s">
+      <c r="H134" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A135" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H135" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A136" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="H136" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A137" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="H137" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A138" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="H138" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A139" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H139" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A140" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="H140" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A141" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="H133" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="15.75" hidden="1" customHeight="1">
-      <c r="A134" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="H134" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="15.75" hidden="1" customHeight="1">
-      <c r="A135" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B135" s="14" t="s">
+      <c r="H141" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A142" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="H142" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A143" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="H135" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="15.75" hidden="1" customHeight="1">
-      <c r="A136" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="H136" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="15.75" hidden="1" customHeight="1">
-      <c r="A137" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="H137" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="15.75" hidden="1" customHeight="1">
-      <c r="A138" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="H138" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="15.75" hidden="1" customHeight="1">
-      <c r="A139" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="H139" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="15.75" hidden="1" customHeight="1">
-      <c r="A140" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="H140" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="15.75" hidden="1" customHeight="1">
-      <c r="A141" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="H141" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="15.75" hidden="1" customHeight="1">
-      <c r="A142" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="H142" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="15.75" hidden="1" customHeight="1">
-      <c r="A143" s="3" t="s">
+      <c r="H143" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A144" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="H143" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="15.75" hidden="1" customHeight="1">
-      <c r="A144" s="3" t="s">
+      <c r="C144" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="H144" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A145" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B145" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="H144" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="15.75" hidden="1" customHeight="1">
-      <c r="A145" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="C145" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H145" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.75" customHeight="1"/>
@@ -10708,14 +10702,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:H145" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="S156_g2_m1"/>
-        <filter val="S156_g2_m2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H145" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/Data/ESM/mindcog_v202204/Medoq_informatie_2.xlsx
+++ b/Data/ESM/mindcog_v202204/Medoq_informatie_2.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mgGoDpgkOeSBDwpmc5/4QkretNxqw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mij/TBJxw5Sw7VkPsx3zCj55mxNcA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="375">
   <si>
     <t>ID Nummer</t>
   </si>
@@ -290,859 +290,876 @@
     <t>md-c786f4c07e5401391af60242ac120002</t>
   </si>
   <si>
+    <t>S91_g2_m3</t>
+  </si>
+  <si>
+    <t>7-7 tm 13-7</t>
+  </si>
+  <si>
+    <t>md-0b9f1a40ba3301394d7b0242ac120003</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>S91_g2_m4</t>
+  </si>
+  <si>
+    <t>14-7 tm 20-7</t>
+  </si>
+  <si>
+    <t>md-ede28440ba3301391af60242ac120002</t>
+  </si>
+  <si>
+    <t>s163_g2_m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-6 tm 11-6 </t>
+  </si>
+  <si>
+    <t>md-c7b71c70ba3601394d7b0242ac120003</t>
+  </si>
+  <si>
+    <t>s163_g2_m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-6 tm 18-6 </t>
+  </si>
+  <si>
+    <t>md-136cd3f0ba3701394d7b0242ac120003</t>
+  </si>
+  <si>
+    <t>S125_g2_m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-5 tm 1-6 </t>
+  </si>
+  <si>
+    <t>md-7b7c0e209ac201394d7b0242ac120003</t>
+  </si>
+  <si>
+    <t>S125_g2_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-5 tm 19-5 </t>
+  </si>
+  <si>
+    <t>md-adeb48c09ac201391af60242ac120002</t>
+  </si>
+  <si>
+    <t>gestopt na 1 week</t>
+  </si>
+  <si>
+    <t>s207_g2_m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-6 tm 13-7 </t>
+  </si>
+  <si>
+    <t>md-622156d0ba2f0139b98d0242ac120002</t>
+  </si>
+  <si>
+    <t>s207_g2_m2</t>
+  </si>
+  <si>
+    <t>14-6 tm 20-7</t>
+  </si>
+  <si>
+    <t>md-cb77cfc0ba3101394d7b0242ac120003</t>
+  </si>
+  <si>
+    <t>s56_g1_m3</t>
+  </si>
+  <si>
+    <t>md-b8c7d940ba350139b98d0242ac120002</t>
+  </si>
+  <si>
+    <t>s56_g1_m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-6 tm 20-7 </t>
+  </si>
+  <si>
+    <t>md-03e5ac20ba360139b98d0242ac120002</t>
+  </si>
+  <si>
+    <t>s202_g2_m1</t>
+  </si>
+  <si>
+    <t>md-4df0ecc0bc8c01394d7b0242ac120003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s202_g2_m2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-7 tm 20-7 </t>
+  </si>
+  <si>
+    <t>md-8e3fd460bc8c0139b98d0242ac120002</t>
+  </si>
+  <si>
+    <t>s7_g2_m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-7 tm 3-8 </t>
+  </si>
+  <si>
+    <t>md-56d509b0cd0a013939700242ac120004</t>
+  </si>
+  <si>
+    <t>s7_g2_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-8 tm 10-8 </t>
+  </si>
+  <si>
+    <t>md-9ec758d0cd0a0139775a0242ac120004</t>
+  </si>
+  <si>
+    <t>s208_g2_m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-9 tm 5-10 </t>
+  </si>
+  <si>
+    <t>md-534ad18001b7013a39700242ac120004</t>
+  </si>
+  <si>
+    <t>s208_g2_m4</t>
+  </si>
+  <si>
+    <t>6-10 tm 12-10</t>
+  </si>
+  <si>
+    <t>md-e6c4cc1001b7013a66ac0242ac120002</t>
+  </si>
+  <si>
+    <t>s220_g2_m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-8 tm 24-8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">md-0c58e730dcb0013939700242ac120004 </t>
+  </si>
+  <si>
+    <t>s220_g2_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-8 tm 31-8 </t>
+  </si>
+  <si>
+    <t>md-4f1def30dcb0013939700242ac120004</t>
+  </si>
+  <si>
+    <t>s215_g1_m1</t>
+  </si>
+  <si>
+    <t>md-7d9dd690dcb0013966ac0242ac120002</t>
+  </si>
+  <si>
+    <t>s215_g1_m2</t>
+  </si>
+  <si>
+    <t>25-9 tm 31-8</t>
+  </si>
+  <si>
+    <t>md-9ec5f1e0dcb0013939700242ac120004</t>
+  </si>
+  <si>
+    <t>s222_g1_m1</t>
+  </si>
+  <si>
+    <t>27-9 tm 5-10</t>
+  </si>
+  <si>
+    <t>md-1caeb24001ad013a66ac0242ac120002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s222_g1_m2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-10 tm 12-10 </t>
+  </si>
+  <si>
+    <t>md-418d63c001ae013a39700242ac120004</t>
+  </si>
+  <si>
+    <t>s174_g2_m3</t>
+  </si>
+  <si>
+    <t>md-2498919001c8013a39700242ac120004</t>
+  </si>
+  <si>
+    <t>s174_g2_m4</t>
+  </si>
+  <si>
+    <t>md-139baf1001c9013a775a0242ac120004</t>
+  </si>
+  <si>
+    <t>s10_g1_m3</t>
+  </si>
+  <si>
+    <t>4-11 tm 16-11</t>
+  </si>
+  <si>
+    <t>md-c897f4601f9a013a32760242ac120003</t>
+  </si>
+  <si>
+    <t>s10_g1_m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-11 tm 23-11 </t>
+  </si>
+  <si>
+    <t>md-88ebdbc01f9b013a771d0242ac120003</t>
+  </si>
+  <si>
+    <t>s108_g1_m3</t>
+  </si>
+  <si>
+    <t>md-252013a01fa3013a771d0242ac120003</t>
+  </si>
+  <si>
+    <t>s108_g1_m4</t>
+  </si>
+  <si>
+    <t>17-11 tm 23-11</t>
+  </si>
+  <si>
+    <t>md-7c0de1201fa3013accf80242ac120004</t>
+  </si>
+  <si>
+    <t>s53_g2_m1</t>
+  </si>
+  <si>
+    <t>22-12 tm 28-12</t>
+  </si>
+  <si>
+    <t>md-42a984404150013a32760242ac120003</t>
+  </si>
+  <si>
+    <t>s53_g2_m2</t>
+  </si>
+  <si>
+    <t>29-12 tm 04-01</t>
+  </si>
+  <si>
+    <t>md-f80d1a004150013a771d0242ac120003</t>
+  </si>
+  <si>
+    <t>s298_g1_m1</t>
+  </si>
+  <si>
+    <t>md-9961939043d6013accf80242ac120004</t>
+  </si>
+  <si>
+    <t>s298_g1_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-12 tm 04-01 </t>
+  </si>
+  <si>
+    <t>md-cb1efc4043d7013a771d0242ac120003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s305_g1_m1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-02 tm 08-02 </t>
+  </si>
+  <si>
+    <t>md-61f59670624e013aa7520242ac120002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s305_g1_m2 </t>
+  </si>
+  <si>
+    <t>09-02 tm 15-02</t>
+  </si>
+  <si>
+    <t>md-2a6b6be0624f013aa7520242ac120002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s270_g1_m1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-11 tm 16-11 </t>
+  </si>
+  <si>
+    <t>md-ebf50e801f9c013a771d0242ac120003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s270_g1_m2 </t>
+  </si>
+  <si>
+    <t>md-53b033c01f9d013a771d0242ac120003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s202_g2_m1 </t>
+  </si>
+  <si>
+    <t>s306_g1_m3</t>
+  </si>
+  <si>
+    <t>27-4 tm 03-5</t>
+  </si>
+  <si>
+    <t>md-7b827050a37f013a52bb0242ac120004</t>
+  </si>
+  <si>
+    <t>s306_g1_m4</t>
+  </si>
+  <si>
+    <t>md-ad130050a37f013afb520242ac120002</t>
+  </si>
+  <si>
+    <t>s156_g2_m3</t>
+  </si>
+  <si>
+    <t>11-8 tm 24-8</t>
+  </si>
+  <si>
+    <t>md-b4ccac30dcaf0139775a0242ac120004</t>
+  </si>
+  <si>
+    <t>s156_g2_m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-8 tm 31- 8 </t>
+  </si>
+  <si>
+    <t>md-e400dce0dcaf013966ac0242ac120002</t>
+  </si>
+  <si>
+    <t>S10g1m1</t>
+  </si>
+  <si>
+    <t>10-2 tm 12-2</t>
+  </si>
+  <si>
+    <t>md-0e41072047ab0139aa6a0242ac120003</t>
+  </si>
+  <si>
+    <t>10-2 tm 16-2</t>
+  </si>
+  <si>
+    <t>17-2 tm 23-2</t>
+  </si>
+  <si>
+    <t>S10g1m2</t>
+  </si>
+  <si>
+    <t>13-2 tm 23-2</t>
+  </si>
+  <si>
+    <t>md-c404fe6047ab0139c3040242ac120004</t>
+  </si>
+  <si>
+    <t>Dagboekje is ook op 16-2 1 x om 21.00 uur 's avonds ingevuld</t>
+  </si>
+  <si>
+    <t>S15g1m1</t>
+  </si>
+  <si>
+    <t>md-5d0dbb4047ac01393fe60242ac120002</t>
+  </si>
+  <si>
+    <t>S15g1m2</t>
+  </si>
+  <si>
+    <t>md-8e92995047ac0139c3040242ac120004</t>
+  </si>
+  <si>
+    <t>Ook nog een paar dagboekjes 's nachts verzonden 24-2, maar die zijn niet ingevuld</t>
+  </si>
+  <si>
+    <t>56_g1_m1</t>
+  </si>
+  <si>
+    <t>24-3 tm 31-3</t>
+  </si>
+  <si>
+    <t>md-4891e730581601394d7b0242ac120003</t>
+  </si>
+  <si>
+    <t>24-3 tm 30-3</t>
+  </si>
+  <si>
+    <t>31-3 tm 6-4</t>
+  </si>
+  <si>
+    <t>56_g1_m2</t>
+  </si>
+  <si>
+    <t>1-4 tm 6-4</t>
+  </si>
+  <si>
+    <t>md-b6dcb6c0581601394d7b0242ac120003</t>
+  </si>
+  <si>
+    <t>S nachts 7-4 1 x dagboekje verstuurd, geen respons</t>
+  </si>
+  <si>
+    <t>S8_g1_m3</t>
+  </si>
+  <si>
+    <t>24-3 tm 26-3</t>
+  </si>
+  <si>
+    <t>md-ad910010689601394d7b0242ac120003</t>
+  </si>
+  <si>
+    <t>S nachts 27-3 dagboekjes verstuurd, geen respons</t>
+  </si>
+  <si>
+    <t>S8_g1_m4</t>
+  </si>
+  <si>
+    <t>27-3 tm 6-4</t>
+  </si>
+  <si>
+    <t>md-999a3f90689701394d7b0242ac120003</t>
+  </si>
+  <si>
+    <t>S nachts 7-4 meerdere dagboekjes verstuurd, geen respons</t>
+  </si>
+  <si>
+    <t>S112_g1_m1</t>
+  </si>
+  <si>
+    <t>25-3 tm 4-4</t>
+  </si>
+  <si>
+    <t>md-4ba317e06aed01391af60242ac120002</t>
+  </si>
+  <si>
+    <t>S112_g1_m2</t>
+  </si>
+  <si>
+    <t>md-72e2c2306aed01394d7b0242ac120003</t>
+  </si>
+  <si>
+    <t>S108_g1_m1</t>
+  </si>
+  <si>
+    <t>md-85b279d06d2401394d7b0242ac120003</t>
+  </si>
+  <si>
+    <t>S108_g1_m2</t>
+  </si>
+  <si>
+    <t>md-ba44aff06d240139b98d0242ac120002</t>
+  </si>
+  <si>
+    <t>S3_g1_m3</t>
+  </si>
+  <si>
+    <t>5-5 tm 7-5</t>
+  </si>
+  <si>
+    <t>md-eff262308af80139b98d0242ac120002</t>
+  </si>
+  <si>
+    <t>5-5 tm 11-5</t>
+  </si>
+  <si>
+    <t>12-5 tm 18-5</t>
+  </si>
+  <si>
+    <t>S3_g1_m4</t>
+  </si>
+  <si>
+    <t>8-5 tm 18-5</t>
+  </si>
+  <si>
+    <t>md-4e559df08af901391af60242ac120002</t>
+  </si>
+  <si>
+    <t>S67_g1_m3</t>
+  </si>
+  <si>
+    <t>md-e84926808afb01394d7b0242ac120003</t>
+  </si>
+  <si>
+    <t>S67_g1_m4</t>
+  </si>
+  <si>
+    <t>md-6aa07d008afc01394d7b0242ac120003</t>
+  </si>
+  <si>
+    <t>S156_g2_m1</t>
+  </si>
+  <si>
+    <t>md-b599e7508afc01391af60242ac120002</t>
+  </si>
+  <si>
     <t>S156_g2_m2</t>
   </si>
   <si>
-    <t>29-4 tm 18-5</t>
-  </si>
-  <si>
     <t>md-d5035d708afc0139b98d0242ac120002</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>S156_g2_m1</t>
-  </si>
-  <si>
-    <t>19-5 tm 11-5</t>
-  </si>
-  <si>
-    <t>md-b599e7508afc01391af60242ac120002</t>
-  </si>
-  <si>
-    <t>S91_g2_m3</t>
-  </si>
-  <si>
-    <t>7-7 tm 13-7</t>
-  </si>
-  <si>
-    <t>md-0b9f1a40ba3301394d7b0242ac120003</t>
-  </si>
-  <si>
-    <t>S91_g2_m4</t>
-  </si>
-  <si>
-    <t>14-7 tm 20-7</t>
-  </si>
-  <si>
-    <t>md-ede28440ba3301391af60242ac120002</t>
-  </si>
-  <si>
-    <t>s163_g2_m3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-6 tm 11-6 </t>
-  </si>
-  <si>
-    <t>md-c7b71c70ba3601394d7b0242ac120003</t>
-  </si>
-  <si>
-    <t>s163_g2_m4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-6 tm 18-6 </t>
-  </si>
-  <si>
-    <t>md-136cd3f0ba3701394d7b0242ac120003</t>
-  </si>
-  <si>
-    <t>S125_g2_m1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-5 tm 1-6 </t>
-  </si>
-  <si>
-    <t>md-7b7c0e209ac201394d7b0242ac120003</t>
-  </si>
-  <si>
-    <t>S125_g2_m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-5 tm 19-5 </t>
-  </si>
-  <si>
-    <t>md-adeb48c09ac201391af60242ac120002</t>
-  </si>
-  <si>
-    <t>gestopt na 1 week</t>
+    <t>S91_g2_m1</t>
+  </si>
+  <si>
+    <t>md-9596c8308bbf0139b98d0242ac120002</t>
+  </si>
+  <si>
+    <t>S91_g2_m2</t>
+  </si>
+  <si>
+    <t>md-b769e9008bbf01394d7b0242ac120003</t>
+  </si>
+  <si>
+    <t>13_g1_m3</t>
+  </si>
+  <si>
+    <t>md-ec91eba08bbf01391af60242ac120002</t>
+  </si>
+  <si>
+    <t>13_g1_m4</t>
+  </si>
+  <si>
+    <t>md-150b7f108bc001391af60242ac120002</t>
+  </si>
+  <si>
+    <t>S163_g2_m1</t>
+  </si>
+  <si>
+    <t>md-be5ec8008e1101391af60242ac120002</t>
+  </si>
+  <si>
+    <t>S163_g2_m2</t>
+  </si>
+  <si>
+    <t>md-e363e3608e1101391af60242ac120002</t>
+  </si>
+  <si>
+    <t>s147_g2_m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-6 tm 22-6 </t>
+  </si>
+  <si>
+    <t>md-2a4c9af0a99e0139b98d0242ac120002</t>
+  </si>
+  <si>
+    <t>s147_g2_m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-6 tm 29-6 </t>
+  </si>
+  <si>
+    <t>md-ac281760a99e0139b98d0242ac120002</t>
+  </si>
+  <si>
+    <t>s174_g2_m1</t>
+  </si>
+  <si>
+    <t>md-469d8470a99f01394d7b0242ac120003</t>
+  </si>
+  <si>
+    <t>s174_g2_m2</t>
+  </si>
+  <si>
+    <t>md-9aa086b0a99f01394d7b0242ac120003</t>
+  </si>
+  <si>
+    <t>S57_g1_m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-6 tm 22-6 </t>
+  </si>
+  <si>
+    <t>md-55a47c60acde01391af60242ac120002</t>
+  </si>
+  <si>
+    <t>S57_g1_m4</t>
+  </si>
+  <si>
+    <t>md-87405770acde01391af60242ac120002</t>
+  </si>
+  <si>
+    <t>S24_g1_m3</t>
+  </si>
+  <si>
+    <t>md-bfb4d6f0acde0139b98d0242ac120002</t>
+  </si>
+  <si>
+    <t>S24_g1_m4</t>
+  </si>
+  <si>
+    <t>md-dfa546b0acde01394d7b0242ac120003</t>
+  </si>
+  <si>
+    <t>s207_g2_m4</t>
+  </si>
+  <si>
+    <t>15-9 tm 21-9</t>
+  </si>
+  <si>
+    <t>md-94eed280f1ee0139775a0242ac120004</t>
+  </si>
+  <si>
+    <t>s207_g2_m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-9 tm 14-9 </t>
+  </si>
+  <si>
+    <t>md-82fed250f1ed0139775a0242ac120004</t>
+  </si>
+  <si>
+    <t>s140_g2_m3</t>
+  </si>
+  <si>
+    <t>md-0fd91310cd03013939700242ac120004</t>
+  </si>
+  <si>
+    <t>S140_g2_m4</t>
+  </si>
+  <si>
+    <t>md-76ce3540cd030139775a0242ac120004</t>
+  </si>
+  <si>
+    <t>s7_g2_m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-11 tm 16-11 </t>
+  </si>
+  <si>
+    <t>md-f311b6201f96013a771d0242ac120003</t>
+  </si>
+  <si>
+    <t>s7_g2_m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-11 tm 23-11 </t>
+  </si>
+  <si>
+    <t>md-557f40901f99013accf80242ac120004</t>
+  </si>
+  <si>
+    <t>S208_g2_m1</t>
+  </si>
+  <si>
+    <t>md-d9503f20cd0a013939700242ac120004</t>
+  </si>
+  <si>
+    <t>S208_g2_m2</t>
+  </si>
+  <si>
+    <t>md-04474b20cd0b013966ac0242ac120002</t>
+  </si>
+  <si>
+    <t>s220_g2_m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-11 tm 25-11 </t>
+  </si>
+  <si>
+    <t>md-db5082503054013a32760242ac120003</t>
+  </si>
+  <si>
+    <t>s220_g2_m4</t>
+  </si>
+  <si>
+    <t>25-11 tm 25-11</t>
+  </si>
+  <si>
+    <t>md-6ffa3c503055013a771d0242ac120003</t>
+  </si>
+  <si>
+    <t>s81_g1_m3</t>
+  </si>
+  <si>
+    <t>7-8 tm 14-8</t>
+  </si>
+  <si>
+    <t>md-949fb410f1e7013966ac0242ac120002</t>
+  </si>
+  <si>
+    <t>s81_g1_m4</t>
+  </si>
+  <si>
+    <t>15-8 tm 21-8</t>
+  </si>
+  <si>
+    <t>md-5d026380f1eb013966ac0242ac120002</t>
+  </si>
+  <si>
+    <t>s158_g2_m1</t>
+  </si>
+  <si>
+    <t>25-11 tm 7-12</t>
+  </si>
+  <si>
+    <t>md-391e51103056013a32760242ac120003</t>
+  </si>
+  <si>
+    <t>s158_g2_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-12 tm 14-12 </t>
+  </si>
+  <si>
+    <t>md-f84159d03056013a771d0242ac120003</t>
+  </si>
+  <si>
+    <t>s53_g2_m3</t>
+  </si>
+  <si>
+    <t>23-02 tm 01-03</t>
+  </si>
+  <si>
+    <t>md-1fcf1290720a013afb500242ac120002</t>
+  </si>
+  <si>
+    <t>s53_g2_m4</t>
+  </si>
+  <si>
+    <t>2-03 tm 08-03</t>
+  </si>
+  <si>
+    <t>md-4d8e3390720a013a52bb0242ac120004</t>
+  </si>
+  <si>
+    <t>s298_g1_m3</t>
+  </si>
+  <si>
+    <t>md-649bf8b07208013a03e50242ac120002</t>
+  </si>
+  <si>
+    <t>s298_g1_m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-03 tm 08-03 </t>
+  </si>
+  <si>
+    <t>md-adcb96e07208013a52bb0242ac120004</t>
+  </si>
+  <si>
+    <t>s222_g1_m3</t>
+  </si>
+  <si>
+    <t>12-01 tm 18-01</t>
+  </si>
+  <si>
+    <t>md-2a87be80543e013a32760242ac120003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s222_g1_m4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-01 tm 25-01 </t>
+  </si>
+  <si>
+    <t>md-e44e3b70543e013a771d0242ac120003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s306_g1_m1 </t>
+  </si>
+  <si>
+    <t>md-eca95bd0709b013a03e50242ac120002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s306_g1_m2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-03 tm 08-03 </t>
+  </si>
+  <si>
+    <t>md-c7d66f30709f013a03e50242ac120002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s262_g2_m1 </t>
+  </si>
+  <si>
+    <t>md-ba5a40f0709d013a52bb0242ac120004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s262_g2_m2 </t>
+  </si>
+  <si>
+    <t>md-e51fb120709e013a03e50242ac120002</t>
+  </si>
+  <si>
+    <t>s270_g1_m3</t>
+  </si>
+  <si>
+    <t>md-252040b07209013afb500242ac120002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s270_g1_m4 </t>
+  </si>
+  <si>
+    <t>md-53c46f607209013a03e50242ac120002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s307_g1_m1 </t>
+  </si>
+  <si>
+    <t>md-a47e11207209013afb500242ac120002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s307_g1_m2 </t>
+  </si>
+  <si>
+    <t>md-c910c5907209013a03e50242ac120002</t>
   </si>
   <si>
     <t>S65_g1_m3</t>
   </si>
   <si>
-    <t xml:space="preserve">7-6 tm 22-6 </t>
+    <t xml:space="preserve">16-6 tm 22-6 </t>
   </si>
   <si>
     <t>md-13c84080a99d01391af60242ac120002</t>
   </si>
   <si>
-    <t>s207_g2_m1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28-6 tm 13-7 </t>
-  </si>
-  <si>
-    <t>md-622156d0ba2f0139b98d0242ac120002</t>
-  </si>
-  <si>
-    <t>s207_g2_m2</t>
-  </si>
-  <si>
-    <t>14-6 tm 20-7</t>
-  </si>
-  <si>
-    <t>md-cb77cfc0ba3101394d7b0242ac120003</t>
-  </si>
-  <si>
-    <t>s56_g1_m3</t>
-  </si>
-  <si>
-    <t>md-b8c7d940ba350139b98d0242ac120002</t>
-  </si>
-  <si>
-    <t>s56_g1_m4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-6 tm 20-7 </t>
-  </si>
-  <si>
-    <t>md-03e5ac20ba360139b98d0242ac120002</t>
-  </si>
-  <si>
-    <t>s202_g2_m1</t>
-  </si>
-  <si>
-    <t>md-4df0ecc0bc8c01394d7b0242ac120003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s202_g2_m2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-7 tm 20-7 </t>
-  </si>
-  <si>
-    <t>md-8e3fd460bc8c0139b98d0242ac120002</t>
-  </si>
-  <si>
-    <t>s7_g2_m1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-7 tm 3-8 </t>
-  </si>
-  <si>
-    <t>md-56d509b0cd0a013939700242ac120004</t>
-  </si>
-  <si>
-    <t>s7_g2_m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-8 tm 10-8 </t>
-  </si>
-  <si>
-    <t>md-9ec758d0cd0a0139775a0242ac120004</t>
-  </si>
-  <si>
-    <t>s208_g2_m3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-9 tm 5-10 </t>
-  </si>
-  <si>
-    <t>md-534ad18001b7013a39700242ac120004</t>
-  </si>
-  <si>
-    <t>s208_g2_m4</t>
-  </si>
-  <si>
-    <t>6-10 tm 12-10</t>
-  </si>
-  <si>
-    <t>md-e6c4cc1001b7013a66ac0242ac120002</t>
-  </si>
-  <si>
-    <t>s220_g2_m1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-8 tm 24-8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">md-0c58e730dcb0013939700242ac120004 </t>
-  </si>
-  <si>
-    <t>s220_g2_m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25-8 tm 31-8 </t>
-  </si>
-  <si>
-    <t>md-4f1def30dcb0013939700242ac120004</t>
-  </si>
-  <si>
-    <t>s215_g1_m1</t>
-  </si>
-  <si>
-    <t>md-7d9dd690dcb0013966ac0242ac120002</t>
-  </si>
-  <si>
-    <t>s215_g1_m2</t>
-  </si>
-  <si>
-    <t>25-9 tm 31-8</t>
-  </si>
-  <si>
-    <t>md-9ec5f1e0dcb0013939700242ac120004</t>
-  </si>
-  <si>
-    <t>s222_g1_m1</t>
-  </si>
-  <si>
-    <t>27-9 tm 5-10</t>
-  </si>
-  <si>
-    <t>md-1caeb24001ad013a66ac0242ac120002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s222_g1_m2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-10 tm 12-10 </t>
-  </si>
-  <si>
-    <t>md-418d63c001ae013a39700242ac120004</t>
-  </si>
-  <si>
-    <t>s174_g2_m3</t>
-  </si>
-  <si>
-    <t>md-2498919001c8013a39700242ac120004</t>
-  </si>
-  <si>
-    <t>s174_g2_m4</t>
-  </si>
-  <si>
-    <t>md-139baf1001c9013a775a0242ac120004</t>
-  </si>
-  <si>
-    <t>s10_g1_m3</t>
-  </si>
-  <si>
-    <t>4-11 tm 16-11</t>
-  </si>
-  <si>
-    <t>md-c897f4601f9a013a32760242ac120003</t>
-  </si>
-  <si>
-    <t>s10_g1_m4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-11 tm 23-11 </t>
-  </si>
-  <si>
-    <t>md-88ebdbc01f9b013a771d0242ac120003</t>
-  </si>
-  <si>
-    <t>s108_g1_m3</t>
-  </si>
-  <si>
-    <t>md-252013a01fa3013a771d0242ac120003</t>
-  </si>
-  <si>
-    <t>s108_g1_m4</t>
-  </si>
-  <si>
-    <t>17-11 tm 23-11</t>
-  </si>
-  <si>
-    <t>md-7c0de1201fa3013accf80242ac120004</t>
-  </si>
-  <si>
-    <t>s53_g2_m1</t>
-  </si>
-  <si>
-    <t>22-12 tm 28-12</t>
-  </si>
-  <si>
-    <t>md-42a984404150013a32760242ac120003</t>
-  </si>
-  <si>
-    <t>s53_g2_m2</t>
-  </si>
-  <si>
-    <t>29-12 tm 04-01</t>
-  </si>
-  <si>
-    <t>md-f80d1a004150013a771d0242ac120003</t>
-  </si>
-  <si>
-    <t>s298_g1_m1</t>
-  </si>
-  <si>
-    <t>md-9961939043d6013accf80242ac120004</t>
-  </si>
-  <si>
-    <t>s298_g1_m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29-12 tm 04-01 </t>
-  </si>
-  <si>
-    <t>md-cb1efc4043d7013a771d0242ac120003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s305_g1_m1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-02 tm 08-02 </t>
-  </si>
-  <si>
-    <t>md-61f59670624e013aa7520242ac120002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s305_g1_m2 </t>
-  </si>
-  <si>
-    <t>09-02 tm 15-02</t>
-  </si>
-  <si>
-    <t>md-2a6b6be0624f013aa7520242ac120002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s270_g1_m1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-11 tm 16-11 </t>
-  </si>
-  <si>
-    <t>md-ebf50e801f9c013a771d0242ac120003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s270_g1_m2 </t>
-  </si>
-  <si>
-    <t>md-53b033c01f9d013a771d0242ac120003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s202_g2_m1 </t>
-  </si>
-  <si>
-    <t>S10g1m1</t>
-  </si>
-  <si>
-    <t>10-2 tm 12-2</t>
-  </si>
-  <si>
-    <t>md-0e41072047ab0139aa6a0242ac120003</t>
-  </si>
-  <si>
-    <t>10-2 tm 16-2</t>
-  </si>
-  <si>
-    <t>17-2 tm 23-2</t>
-  </si>
-  <si>
-    <t>S10g1m2</t>
-  </si>
-  <si>
-    <t>13-2 tm 23-2</t>
-  </si>
-  <si>
-    <t>md-c404fe6047ab0139c3040242ac120004</t>
-  </si>
-  <si>
-    <t>Dagboekje is ook op 16-2 1 x om 21.00 uur 's avonds ingevuld</t>
-  </si>
-  <si>
-    <t>S15g1m1</t>
-  </si>
-  <si>
-    <t>md-5d0dbb4047ac01393fe60242ac120002</t>
-  </si>
-  <si>
-    <t>S15g1m2</t>
-  </si>
-  <si>
-    <t>md-8e92995047ac0139c3040242ac120004</t>
-  </si>
-  <si>
-    <t>Ook nog een paar dagboekjes 's nachts verzonden 24-2, maar die zijn niet ingevuld</t>
-  </si>
-  <si>
-    <t>56_g1_m1</t>
-  </si>
-  <si>
-    <t>24-3 tm 31-3</t>
-  </si>
-  <si>
-    <t>md-4891e730581601394d7b0242ac120003</t>
-  </si>
-  <si>
-    <t>24-3 tm 30-3</t>
-  </si>
-  <si>
-    <t>31-3 tm 6-4</t>
-  </si>
-  <si>
-    <t>56_g1_m2</t>
-  </si>
-  <si>
-    <t>1-4 tm 6-4</t>
-  </si>
-  <si>
-    <t>md-b6dcb6c0581601394d7b0242ac120003</t>
-  </si>
-  <si>
-    <t>S nachts 7-4 1 x dagboekje verstuurd, geen respons</t>
-  </si>
-  <si>
-    <t>S8_g1_m3</t>
-  </si>
-  <si>
-    <t>24-3 tm 26-3</t>
-  </si>
-  <si>
-    <t>md-ad910010689601394d7b0242ac120003</t>
-  </si>
-  <si>
-    <t>S nachts 27-3 dagboekjes verstuurd, geen respons</t>
-  </si>
-  <si>
-    <t>S8_g1_m4</t>
-  </si>
-  <si>
-    <t>27-3 tm 6-4</t>
-  </si>
-  <si>
-    <t>md-999a3f90689701394d7b0242ac120003</t>
-  </si>
-  <si>
-    <t>S nachts 7-4 meerdere dagboekjes verstuurd, geen respons</t>
-  </si>
-  <si>
-    <t>S112_g1_m1</t>
-  </si>
-  <si>
-    <t>25-3 tm 4-4</t>
-  </si>
-  <si>
-    <t>md-4ba317e06aed01391af60242ac120002</t>
-  </si>
-  <si>
-    <t>S112_g1_m2</t>
-  </si>
-  <si>
-    <t>md-72e2c2306aed01394d7b0242ac120003</t>
-  </si>
-  <si>
-    <t>S108_g1_m1</t>
-  </si>
-  <si>
-    <t>md-85b279d06d2401394d7b0242ac120003</t>
-  </si>
-  <si>
-    <t>S108_g1_m2</t>
-  </si>
-  <si>
-    <t>md-ba44aff06d240139b98d0242ac120002</t>
-  </si>
-  <si>
-    <t>S3_g1_m3</t>
-  </si>
-  <si>
-    <t>5-5 tm 7-5</t>
-  </si>
-  <si>
-    <t>md-eff262308af80139b98d0242ac120002</t>
-  </si>
-  <si>
-    <t>5-5 tm 11-5</t>
-  </si>
-  <si>
-    <t>12-5 tm 18-5</t>
-  </si>
-  <si>
-    <t>S3_g1_m4</t>
-  </si>
-  <si>
-    <t>8-5 tm 18-5</t>
-  </si>
-  <si>
-    <t>md-4e559df08af901391af60242ac120002</t>
-  </si>
-  <si>
-    <t>S67_g1_m3</t>
-  </si>
-  <si>
-    <t>md-e84926808afb01394d7b0242ac120003</t>
-  </si>
-  <si>
-    <t>S67_g1_m4</t>
-  </si>
-  <si>
-    <t>md-6aa07d008afc01394d7b0242ac120003</t>
-  </si>
-  <si>
-    <t>S91_g2_m1</t>
-  </si>
-  <si>
-    <t>md-9596c8308bbf0139b98d0242ac120002</t>
-  </si>
-  <si>
-    <t>S91_g2_m2</t>
-  </si>
-  <si>
-    <t>md-b769e9008bbf01394d7b0242ac120003</t>
-  </si>
-  <si>
-    <t>13_g1_m3</t>
-  </si>
-  <si>
-    <t>md-ec91eba08bbf01391af60242ac120002</t>
-  </si>
-  <si>
-    <t>13_g1_m4</t>
-  </si>
-  <si>
-    <t>md-150b7f108bc001391af60242ac120002</t>
-  </si>
-  <si>
-    <t>S163_g2_m1</t>
-  </si>
-  <si>
-    <t>md-be5ec8008e1101391af60242ac120002</t>
-  </si>
-  <si>
-    <t>S163_g2_m2</t>
-  </si>
-  <si>
-    <t>md-e363e3608e1101391af60242ac120002</t>
-  </si>
-  <si>
-    <t>29-4 tm  11-5</t>
-  </si>
-  <si>
-    <t>s156_g2_m3</t>
-  </si>
-  <si>
-    <t>11-8 tm 24-8</t>
-  </si>
-  <si>
-    <t>md-b4ccac30dcaf0139775a0242ac120004</t>
-  </si>
-  <si>
-    <t>s156_g2_m4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25-8 tm 31- 8 </t>
-  </si>
-  <si>
-    <t>md-e400dce0dcaf013966ac0242ac120002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-4 tm 11-5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-5 tm 18-5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-5 tm 11-5 </t>
-  </si>
-  <si>
-    <t>19-05 tm 1-6</t>
-  </si>
-  <si>
-    <t>md-d9142a009ac601391af60242ac120002</t>
-  </si>
-  <si>
-    <t>2-6 tm  2-6</t>
-  </si>
-  <si>
-    <t>md-1e1392309ac70139b98d0242ac120002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dropout </t>
-  </si>
-  <si>
-    <t>s147_g2_m3</t>
-  </si>
-  <si>
-    <t>md-2a4c9af0a99e0139b98d0242ac120002</t>
-  </si>
-  <si>
-    <t>s147_g2_m4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-6 tm 29-6 </t>
-  </si>
-  <si>
-    <t>md-ac281760a99e0139b98d0242ac120002</t>
-  </si>
-  <si>
-    <t>s174_g2_m1</t>
-  </si>
-  <si>
-    <t>md-469d8470a99f01394d7b0242ac120003</t>
-  </si>
-  <si>
-    <t>s174_g2_m2</t>
-  </si>
-  <si>
-    <t>md-9aa086b0a99f01394d7b0242ac120003</t>
-  </si>
-  <si>
-    <t>S57_g1_m3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-6 tm 22-6 </t>
-  </si>
-  <si>
-    <t>md-55a47c60acde01391af60242ac120002</t>
-  </si>
-  <si>
-    <t>S57_g1_m4</t>
-  </si>
-  <si>
-    <t>md-87405770acde01391af60242ac120002</t>
-  </si>
-  <si>
-    <t>S24_g1_m3</t>
-  </si>
-  <si>
-    <t>md-bfb4d6f0acde0139b98d0242ac120002</t>
-  </si>
-  <si>
-    <t>S24_g1_m4</t>
-  </si>
-  <si>
-    <t>md-dfa546b0acde01394d7b0242ac120003</t>
-  </si>
-  <si>
-    <t>s207_g2_m4</t>
-  </si>
-  <si>
-    <t>15-9 tm 21-9</t>
-  </si>
-  <si>
-    <t>md-94eed280f1ee0139775a0242ac120004</t>
-  </si>
-  <si>
-    <t>s207_g2_m3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-9 tm 14-9 </t>
-  </si>
-  <si>
-    <t>md-82fed250f1ed0139775a0242ac120004</t>
-  </si>
-  <si>
-    <t>s140_g2_m3</t>
-  </si>
-  <si>
-    <t>md-0fd91310cd03013939700242ac120004</t>
-  </si>
-  <si>
-    <t>S140_g2_m4</t>
-  </si>
-  <si>
-    <t>md-76ce3540cd030139775a0242ac120004</t>
-  </si>
-  <si>
-    <t>s7_g2_m3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-11 tm 16-11 </t>
-  </si>
-  <si>
-    <t>md-f311b6201f96013a771d0242ac120003</t>
-  </si>
-  <si>
-    <t>s7_g2_m4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-11 tm 23-11 </t>
-  </si>
-  <si>
-    <t>md-557f40901f99013accf80242ac120004</t>
-  </si>
-  <si>
-    <t>S208_g2_m1</t>
-  </si>
-  <si>
-    <t>md-d9503f20cd0a013939700242ac120004</t>
-  </si>
-  <si>
-    <t>S208_g2_m2</t>
-  </si>
-  <si>
-    <t>md-04474b20cd0b013966ac0242ac120002</t>
-  </si>
-  <si>
-    <t>s220_g2_m3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25-11 tm 25-11 </t>
-  </si>
-  <si>
-    <t>md-db5082503054013a32760242ac120003</t>
-  </si>
-  <si>
-    <t>s220_g2_m4</t>
-  </si>
-  <si>
-    <t>25-11 tm 25-11</t>
-  </si>
-  <si>
-    <t>md-6ffa3c503055013a771d0242ac120003</t>
-  </si>
-  <si>
-    <t>s81_g1_m3</t>
-  </si>
-  <si>
-    <t>7-8 tm 14-8</t>
-  </si>
-  <si>
-    <t>md-949fb410f1e7013966ac0242ac120002</t>
-  </si>
-  <si>
-    <t>s81_g1_m4</t>
-  </si>
-  <si>
-    <t>15-8 tm 21-8</t>
-  </si>
-  <si>
-    <t>md-5d026380f1eb013966ac0242ac120002</t>
-  </si>
-  <si>
-    <t>s158_g2_m1</t>
-  </si>
-  <si>
-    <t>25-11 tm 7-12</t>
-  </si>
-  <si>
-    <t>md-391e51103056013a32760242ac120003</t>
-  </si>
-  <si>
-    <t>s158_g2_m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-12 tm 14-12 </t>
-  </si>
-  <si>
-    <t>md-f84159d03056013a771d0242ac120003</t>
-  </si>
-  <si>
-    <t>s53_g2_m3</t>
-  </si>
-  <si>
-    <t>23-02 tm 01-03</t>
-  </si>
-  <si>
-    <t>md-1fcf1290720a013afb500242ac120002</t>
-  </si>
-  <si>
-    <t>s53_g2_m4</t>
-  </si>
-  <si>
-    <t>2-03 tm 08-03</t>
-  </si>
-  <si>
-    <t>md-4d8e3390720a013a52bb0242ac120004</t>
-  </si>
-  <si>
-    <t>s298_g1_m3</t>
-  </si>
-  <si>
-    <t>md-649bf8b07208013a03e50242ac120002</t>
-  </si>
-  <si>
-    <t>s298_g1_m4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-03 tm 08-03 </t>
-  </si>
-  <si>
-    <t>md-adcb96e07208013a52bb0242ac120004</t>
-  </si>
-  <si>
-    <t>s222_g1_m3</t>
-  </si>
-  <si>
-    <t>12-01 tm 18-01</t>
-  </si>
-  <si>
-    <t>md-2a87be80543e013a32760242ac120003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s222_g1_m4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-01 tm 25-01 </t>
-  </si>
-  <si>
-    <t>md-e44e3b70543e013a771d0242ac120003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s306_g1_m1 </t>
-  </si>
-  <si>
-    <t>md-eca95bd0709b013a03e50242ac120002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s306_g1_m2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-03 tm 08-03 </t>
-  </si>
-  <si>
-    <t>md-c7d66f30709f013a03e50242ac120002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s262_g2_m1 </t>
-  </si>
-  <si>
-    <t>md-ba5a40f0709d013a52bb0242ac120004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s262_g2_m2 </t>
-  </si>
-  <si>
-    <t>md-e51fb120709e013a03e50242ac120002</t>
-  </si>
-  <si>
-    <t>s270_g1_m3</t>
-  </si>
-  <si>
-    <t>md-252040b07209013afb500242ac120002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s270_g1_m4 </t>
-  </si>
-  <si>
-    <t>md-53c46f607209013a03e50242ac120002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s307_g1_m1 </t>
-  </si>
-  <si>
-    <t>md-a47e11207209013afb500242ac120002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s307_g1_m2 </t>
-  </si>
-  <si>
-    <t>md-c910c5907209013a03e50242ac120002</t>
+    <t>s65_g1_m4</t>
+  </si>
+  <si>
+    <t>23-6 tm 29-6</t>
+  </si>
+  <si>
+    <t>md-aa0ca330a99d0139b98d0242ac120002</t>
+  </si>
+  <si>
+    <t>s305_g1_m3</t>
+  </si>
+  <si>
+    <t>08-4 tm 15-4</t>
+  </si>
+  <si>
+    <t>md-66f2ad10922b013a52bb0242ac120004</t>
+  </si>
+  <si>
+    <t>s305_g1_m4</t>
+  </si>
+  <si>
+    <t>15-4 tm 21-4</t>
+  </si>
+  <si>
+    <t>md-f6f1c860922b013afb500242ac120002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
     </font>
     <font>
       <color theme="1"/>
@@ -1152,12 +1169,12 @@
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -1175,21 +1192,6 @@
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Docs-Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
@@ -1203,14 +1205,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5F5"/>
-        <bgColor rgb="FFF5F5F5"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor rgb="FFF5F5F5"/>
       </patternFill>
     </fill>
   </fills>
@@ -1234,59 +1236,50 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1526,2186 +1519,2190 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>3593488.0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>1.0</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>1.0</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>3593492.0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>1.0</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>1.0</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>3593310.0</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>1.0</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>1.0</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>3597844.0</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>1.0</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>1.0</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>1.0</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>1.0</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>3598436.0</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>1.0</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>1.0</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>1.0</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>1.0</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>1.0</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>1.0</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <v>1.0</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="2">
         <v>1.0</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <v>1.0</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>1.0</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>2.0</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>2.0</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>1.0</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <v>1.0</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>1.0</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <v>1.0</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="2">
         <v>1.0</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="2">
         <v>1.0</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="2">
         <v>1.0</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="2">
         <v>1.0</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <v>1.0</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="2">
         <v>1.0</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="4" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5" t="s">
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5" t="s">
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6" t="s">
+      <c r="C36" s="7"/>
+      <c r="D36" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="7" t="s">
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c r="A37" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="7"/>
+      <c r="D37" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="4" t="s">
+      <c r="C38" s="7"/>
+      <c r="D38" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="4" t="s">
+      <c r="C39" s="7"/>
+      <c r="D39" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
+      <c r="E39" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="4" t="s">
+      <c r="B40" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="4" t="s">
+      <c r="B41" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="4" t="s">
+      <c r="B43" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="4" t="s">
+      <c r="B44" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="4" t="s">
+      <c r="B45" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="4" t="s">
+      <c r="C45" s="7"/>
+      <c r="D45" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="4" t="s">
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="4" t="s">
+      <c r="B46" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="C46" s="7"/>
+      <c r="D46" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="4" t="s">
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6" t="s">
+      <c r="C47" s="7"/>
+      <c r="D47" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6" t="s">
+      <c r="C48" s="7"/>
+      <c r="D48" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="4" t="s">
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="4" t="s">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="4" t="s">
+      <c r="C50" s="7"/>
+      <c r="D50" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="4" t="s">
+      <c r="C51" s="7"/>
+      <c r="D51" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="5" t="s">
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5" t="s">
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="4" t="s">
+      <c r="B53" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="C53" s="7"/>
+      <c r="D53" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="4" t="s">
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="8" t="s">
+      <c r="B54" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="7"/>
+      <c r="D54" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="4" t="s">
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="4" t="s">
+      <c r="B55" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="4" t="s">
+      <c r="C55" s="7"/>
+      <c r="D55" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="4" t="s">
+      <c r="B58" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="4" t="s">
+      <c r="C58" s="7"/>
+      <c r="D58" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="4" t="s">
+      <c r="B59" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="4" t="s">
+      <c r="C59" s="7"/>
+      <c r="D59" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6" t="s">
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="4" t="s">
+      <c r="B60" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="4" t="s">
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="4" t="s">
+      <c r="B61" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="C61" s="7"/>
+      <c r="D61" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="8" t="s">
+      <c r="B62" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="C62" s="2"/>
+      <c r="D62" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="4" t="s">
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="8" t="s">
+      <c r="B63" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C63" s="5"/>
+      <c r="C63" s="2"/>
       <c r="D63" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="5"/>
-      <c r="W63" s="5"/>
-      <c r="X63" s="5"/>
-      <c r="Y63" s="5"/>
-      <c r="Z63" s="5"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="4" t="s">
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="2"/>
+      <c r="D65" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="2"/>
+      <c r="D66" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="3" t="s">
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="3" t="s">
+      <c r="C67" s="2"/>
+      <c r="D67" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="3" t="s">
+      <c r="C68" s="2"/>
+      <c r="D68" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="3" t="s">
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="9" t="s">
+      <c r="B70" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="3" t="s">
+      <c r="C72" s="2"/>
+      <c r="D72" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="9" t="s">
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B73" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="3" t="s">
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="3" t="s">
+      <c r="C74" s="7"/>
+      <c r="D74" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="9" t="s">
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="7"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
-      <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
-      <c r="Z73" s="1"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="10"/>
+      <c r="B75" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="10"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="11"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="10"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="11"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="12"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="10"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="11"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="10"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="11"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="10"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="11"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="12"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="10"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="10"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="10"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="11"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="12"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="10"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="11"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="10"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="11"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="13"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="11"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="11"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="12"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="10"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="11"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="10"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="11"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="12"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="10"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="11"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="10"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="11"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="10"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="11"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="10"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="11"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="10"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="11"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="12"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="10"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="11"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="10"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="11"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="12"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="10"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="11"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="12"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="10"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="11"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="12"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="10"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="11"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="12"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="10"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="11"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="12"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="10"/>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="12"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="10"/>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="10"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="10"/>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="10"/>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="10"/>
-    </row>
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="11"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
     <row r="106" ht="15.75" customHeight="1"/>
     <row r="107" ht="15.75" customHeight="1"/>
     <row r="108" ht="15.75" customHeight="1"/>
@@ -4599,10 +4596,6 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -4631,1848 +4624,1509 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="A2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="2">
         <v>3595757.0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G2" s="1">
+      <c r="E2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>1.0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>210</v>
+      <c r="H3" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="A4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="2">
         <v>3595759.0</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="D4" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="A5" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="2">
         <v>1.0</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>215</v>
+      <c r="H5" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G6" s="1">
+      <c r="E6" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G6" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>1.0</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>224</v>
+      <c r="H7" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="B8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G8" s="2">
         <v>2.0</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="D12" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G14" s="2">
         <v>2.0</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G10" s="1">
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G18" s="2">
         <v>1.0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G11" s="1">
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G19" s="2">
         <v>1.0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G12" s="1">
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G20" s="2">
         <v>1.0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13" s="1">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G21" s="2">
         <v>1.0</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D22" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="G22" s="2">
         <v>1.0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G19" s="1">
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G23" s="2">
         <v>1.0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G20" s="1">
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G24" s="2">
         <v>1.0</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="D25" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G25" s="2">
         <v>1.0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
+      <c r="A26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
+      <c r="A27" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
+      <c r="A28" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
+        <v>280</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
+      <c r="A30" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>270</v>
+      <c r="A31" s="14" t="s">
+        <v>285</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
+        <v>276</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
+        <v>287</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
+        <v>289</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
+      <c r="A35" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
+      <c r="A36" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>176</v>
+      <c r="A37" s="14" t="s">
+        <v>299</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
+        <v>130</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
+      <c r="A38" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="5" t="s">
-        <v>283</v>
+      <c r="A39" s="14" t="s">
+        <v>304</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
+        <v>305</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
+      <c r="A40" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="17" t="s">
-        <v>288</v>
+      <c r="A41" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
+        <v>130</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
+      <c r="A42" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
+      <c r="A43" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
+      <c r="A44" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="17" t="s">
-        <v>297</v>
+      <c r="A45" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
+        <v>321</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
+      <c r="A46" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
+      <c r="A47" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
+      <c r="A48" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
+      <c r="A49" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
+      <c r="A50" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
+      <c r="A51" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
+      <c r="A52" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
+      <c r="A53" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
+      <c r="A54" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
+      <c r="A55" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
+      <c r="A56" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5" t="s">
+      <c r="A57" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>342</v>
+      <c r="D61" s="4" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>344</v>
-      </c>
+      <c r="A62" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>347</v>
+      <c r="A63" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>350</v>
+      <c r="A64" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
+      <c r="A65" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
     <row r="74" ht="15.75" customHeight="1"/>
     <row r="75" ht="15.75" customHeight="1"/>
     <row r="76" ht="15.75" customHeight="1"/>
@@ -7386,18 +7040,6 @@
     <row r="984" ht="15.75" customHeight="1"/>
     <row r="985" ht="15.75" customHeight="1"/>
     <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Data/ESM/mindcog_v202204/Medoq_informatie_2.xlsx
+++ b/Data/ESM/mindcog_v202204/Medoq_informatie_2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="384">
   <si>
     <t>ID Nummer</t>
   </si>
@@ -632,6 +632,24 @@
     <t>md-e400dce0dcaf013966ac0242ac120002</t>
   </si>
   <si>
+    <t>s307_g1_m3</t>
+  </si>
+  <si>
+    <t>8-05 tm 15-05</t>
+  </si>
+  <si>
+    <t>md-626dc460c484013a223d0242ac120003</t>
+  </si>
+  <si>
+    <t>s307_g1_m4</t>
+  </si>
+  <si>
+    <t>16-05 tm 21-05</t>
+  </si>
+  <si>
+    <t>md-21c57c40c485013a223d0242ac120003</t>
+  </si>
+  <si>
     <t>S10g1m1</t>
   </si>
   <si>
@@ -1143,6 +1161,15 @@
   </si>
   <si>
     <t>md-f6f1c860922b013afb500242ac120002</t>
+  </si>
+  <si>
+    <t>18-05 tm 24-05</t>
+  </si>
+  <si>
+    <t>25-05 tm 31-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3556,16 +3583,72 @@
       <c r="Z75" s="7"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="11"/>
+      <c r="A76" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="13"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="11"/>
+      <c r="A77" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="11"/>
@@ -4648,22 +4731,22 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C2" s="2">
         <v>3595757.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G2" s="2">
         <v>1.0</v>
@@ -4671,45 +4754,45 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G3" s="2">
         <v>1.0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="C4" s="2">
         <v>3595759.0</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="G4" s="2">
         <v>1.0</v>
@@ -4717,42 +4800,42 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G5" s="2">
         <v>1.0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G6" s="2">
         <v>1.0</v>
@@ -4760,88 +4843,88 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G7" s="2">
         <v>1.0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="G8" s="2">
         <v>2.0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G9" s="2">
         <v>2.0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G10" s="2">
         <v>1.0</v>
@@ -4849,19 +4932,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G11" s="2">
         <v>1.0</v>
@@ -4869,19 +4952,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="G12" s="2">
         <v>1.0</v>
@@ -4889,42 +4972,42 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G13" s="2">
         <v>1.0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G14" s="2">
         <v>2.0</v>
@@ -4932,19 +5015,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G15" s="2">
         <v>2.0</v>
@@ -4952,19 +5035,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G16" s="2">
         <v>2.0</v>
@@ -4972,19 +5055,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G17" s="2">
         <v>2.0</v>
@@ -4992,19 +5075,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G18" s="2">
         <v>1.0</v>
@@ -5012,19 +5095,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G19" s="2">
         <v>1.0</v>
@@ -5032,19 +5115,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G20" s="2">
         <v>1.0</v>
@@ -5052,19 +5135,19 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G21" s="2">
         <v>1.0</v>
@@ -5072,19 +5155,19 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G22" s="2">
         <v>1.0</v>
@@ -5092,19 +5175,19 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G23" s="2">
         <v>1.0</v>
@@ -5112,19 +5195,19 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G24" s="2">
         <v>1.0</v>
@@ -5132,19 +5215,19 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G25" s="2">
         <v>1.0</v>
@@ -5152,14 +5235,14 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -5186,14 +5269,14 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -5220,14 +5303,14 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -5254,14 +5337,14 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -5288,14 +5371,14 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="15" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -5322,14 +5405,14 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -5356,14 +5439,14 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -5390,14 +5473,14 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -5424,14 +5507,14 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="4" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -5458,14 +5541,14 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -5492,14 +5575,14 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -5526,14 +5609,14 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -5560,14 +5643,14 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -5594,14 +5677,14 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -5628,14 +5711,14 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -5662,14 +5745,14 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -5696,14 +5779,14 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -5730,14 +5813,14 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -5764,14 +5847,14 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -5798,14 +5881,14 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -5832,14 +5915,14 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -5866,14 +5949,14 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -5900,168 +5983,168 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="16" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="16" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="16" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="16" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="4" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -6088,40 +6171,64 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="B68" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
     <row r="69" ht="15.75" customHeight="1"/>
     <row r="70" ht="15.75" customHeight="1"/>
     <row r="71" ht="15.75" customHeight="1"/>
